--- a/Analysis/Monthly_summaries_OA_CBEP_and_FOCB long for Pivot.xlsx
+++ b/Analysis/Monthly_summaries_OA_CBEP_and_FOCB long for Pivot.xlsx
@@ -12,14 +12,18 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="5030"/>
   </bookViews>
   <sheets>
-    <sheet name="Monthly_summaries_OA_CBEP" sheetId="1" r:id="rId1"/>
+    <sheet name="Monthly Pivot Chart" sheetId="3" r:id="rId1"/>
+    <sheet name="Monthly_summaries_OA_CBEP" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="20" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="34">
   <si>
     <t>Jan</t>
   </si>
@@ -105,7 +109,22 @@
     <t>pH</t>
   </si>
   <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
     <t>Month</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Min of Value</t>
   </si>
 </sst>
 </file>
@@ -589,8 +608,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -647,6 +671,6014 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Monthly_summaries_OA_CBEP_and_FOCB long for Pivot.xlsx]Monthly Pivot Chart!PivotTable2</c:name>
+    <c:fmtId val="6"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monthly Pivot Chart'!$B$4:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBEP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Monthly Pivot Chart'!$A$6:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monthly Pivot Chart'!$B$6:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>376.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>473.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>407.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>301.83999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>398.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>464.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>566.19000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>723.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>736.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>729.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>576.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>491.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CED-4DAA-BE6C-97F018E53211}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monthly Pivot Chart'!$C$4:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FOCB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Monthly Pivot Chart'!$A$6:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monthly Pivot Chart'!$C$6:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>259.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>280.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>295.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>367.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>388.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>419.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>526.91999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>510.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>536.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>504.17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>443.23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>350.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7CED-4DAA-BE6C-97F018E53211}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="563808672"/>
+        <c:axId val="562623824"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="563808672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562623824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="562623824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="563808672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Curtis C Bohlen" refreshedDate="44019.60577303241" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="672">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E673" sheet="Monthly_summaries_OA_CBEP"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Parameter" numFmtId="0">
+      <sharedItems count="7">
+        <s v="DO"/>
+        <s v="Omega_a"/>
+        <s v="pCO2"/>
+        <s v="pCO2_corr"/>
+        <s v="pH"/>
+        <s v="Salinity"/>
+        <s v="Temperature"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Site" numFmtId="0">
+      <sharedItems count="2">
+        <s v="CBEP"/>
+        <s v="FOCB"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Statistic" numFmtId="0">
+      <sharedItems count="4">
+        <s v="avg"/>
+        <s v="count"/>
+        <s v="median"/>
+        <s v="sd"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems count="12">
+        <s v="Jan"/>
+        <s v="Feb"/>
+        <s v="Mar"/>
+        <s v="Apr"/>
+        <s v="May"/>
+        <s v="Jun"/>
+        <s v="Jul"/>
+        <s v="Aug"/>
+        <s v="Sep"/>
+        <s v="Oct"/>
+        <s v="Nov"/>
+        <s v="Dec"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Value" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="2975"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="672">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="13.34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="11.85"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="175"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="2231"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="13.37"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="11.79"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.11700000000000001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.63700000000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="835"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.77"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.125"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="376.17"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="259.06"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="735"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="835"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="378.6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="243.69"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="22.771000000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="48.09"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="597.41999999999996"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="413.32"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="735"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="835"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="603.23"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="409.79"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="32.497"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="52.307000000000002"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="8.01"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="8.1300000000000008"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="449"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="2231"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="8.01"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="8.14"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.02"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="4.8000000000000001E-2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="29.02"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="30.59"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1193"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="2231"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="29.35"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="30.51"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.345"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.087"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2.54"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.38"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1193"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="2231"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.63"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="2.06"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.466"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="13.14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="12.07"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="534"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1803"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="13.15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="12.11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.20599999999999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.67800000000000005"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.08"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1349"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.95"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.32900000000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="473.45"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="280.98"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="578"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1349"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="464"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="276.88"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="62.170999999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="40.591000000000001"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="693.34"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="441.52"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="578"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1349"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="684.37"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="434.3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="72.138000000000005"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="71.436999999999998"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="8.15"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1803"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="8.15"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="6.4000000000000001E-2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="28.55"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="30.62"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="670"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1803"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="28.79"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="30.7"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1.2869999999999999"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.74399999999999999"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2.91"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.33"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="670"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1803"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="2.8"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1.1000000000000001"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.76"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1.236"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="13.19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="11.78"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="376"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="2214"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="13.2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="11.83"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="0.16400000000000001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="0.63400000000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1.07"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="1734"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1.05"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="0.30099999999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="407.76"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="295.27"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="736"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="1734"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="431.3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="318.74"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="86.138000000000005"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="86.212000000000003"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="582.51"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="439.51"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="736"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="1734"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="619.19000000000005"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="454.31"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="123.81100000000001"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="130.69900000000001"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="8.18"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="2211"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="8.2100000000000009"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="0.107"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="27.53"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="30.28"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="744"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="2214"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="27.78"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="30.3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="1.07"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="0.59299999999999997"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3.58"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2.6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="744"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="2214"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3.52"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="2.74"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="0.502"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="1.1830000000000001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="13.21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="11.36"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="687"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="2160"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="13.29"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="11.34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0.39300000000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0.69699999999999995"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1.91"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="0.78"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="174"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="784"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1.91"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="0.73"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="9.4E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0.27300000000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="301.83999999999997"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="367.3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="639"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="784"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="304.8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="377.97"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="39.341000000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="66.989999999999995"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="379.56"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="479.7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="639"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="784"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="383.01"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="493.13"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="55.793999999999997"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="84.088999999999999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="8.17"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="8.11"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="249"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="2160"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="8.15"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="8.14"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="4.2000000000000003E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0.127"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="26.38"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="29.14"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="721"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="2160"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="27.3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="29.43"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="2.8039999999999998"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="1.474"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="6.68"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="5.83"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="726"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="2160"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="6.82"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="5.56"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0.872"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="1.4990000000000001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="12.43"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="10.47"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="2218"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="2070"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="12.42"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="10.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="0.61799999999999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="0.65400000000000003"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="1.99"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="725"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="1878"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1.97"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="0.93"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="0.16400000000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="0.311"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="398.42"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="388.87"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="1461"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="1878"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="392.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="379.81"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="43.756"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="65.465000000000003"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="455.41"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="422.72"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="1461"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="1878"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="451.42"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="408.93"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="49.122"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="80.283000000000001"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="8.1199999999999992"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="8.02"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="1476"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="2166"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="8.11"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="8.0399999999999991"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="4.1000000000000002E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="8.3000000000000004E-2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="28.32"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="29.03"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="2220"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="2166"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="28.69"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="29.22"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="1.972"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="0.82"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="9.2100000000000009"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="9.84"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="2220"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="2166"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="9.2799999999999994"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="9.83"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="1.343"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="1.504"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="11.36"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="9.43"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="2072"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="2157"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="11.41"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="9.4499999999999993"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="0.67500000000000004"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="0.74"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="1.61"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="1.31"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="1030"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="1644"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1.67"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="0.36499999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="0.432"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="464.58"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="419.28"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="1968"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="1644"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="467.55"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="415.04"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="72.747"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="56.097000000000001"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="455.42"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="399.74"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="1968"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="1644"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="460.3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="396"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="72.760000000000005"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="60.74"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="8.01"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="8.0399999999999991"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="1763"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="2158"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="8.02"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="8.0399999999999991"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="8.1000000000000003E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="7.0000000000000007E-2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="29.38"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="29.31"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="2829"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="2158"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="29.67"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="29.26"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="1.3129999999999999"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="0.66500000000000004"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="12.71"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="13.43"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="2829"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="2158"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="12.79"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="13.4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="1.3049999999999999"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="1.544"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="10.9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="8.9700000000000006"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="1464"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="2504"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="10.82"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="8.98"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="0.79800000000000004"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="0.78"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="1.76"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="1.56"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="1322"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="1607"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="1.83"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="1.53"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="0.28999999999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="0.41799999999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="566.19000000000005"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="526.91999999999996"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="1802"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="1607"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="565.83000000000004"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="519.83000000000004"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="68.355999999999995"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="114.771"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="495.98"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="427.7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="1796"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="1607"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="494.31"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="419.01"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="70.61"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="98.632999999999996"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="7.93"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="8.02"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="2210"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="2503"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="7.93"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="8.0299999999999994"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="5.1999999999999998E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="7.5999999999999998E-2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="29.77"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="30.23"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="2836"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="2504"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="29.91"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="30.23"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="0.85799999999999998"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="0.79500000000000004"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="15.49"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="17.100000000000001"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="2888"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="2504"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="15.6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="17.03"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="1.375"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="1.56"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="10.029999999999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="8.6999999999999993"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="2161"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="2947"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="10.19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="8.73"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="0.89700000000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="0.871"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="1.71"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="1.68"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="1112"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="1383"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="1.79"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="1.58"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="0.54700000000000004"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="0.57099999999999995"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="723.6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="510.86"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="2151"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="1383"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="714.12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="489.22"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="114.628"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="99.522999999999996"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="594.41999999999996"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="394.84"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="2151"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="1383"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="584.83000000000004"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="376.89"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="87.441999999999993"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="85.686999999999998"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="7.86"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="8.0299999999999994"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="1838"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="2859"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="7.88"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="8.0399999999999991"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="0.08"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="0.08"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="29.93"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="30.47"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="2964"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="2949"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="30.01"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="30.69"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="0.79400000000000004"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="0.77300000000000002"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="16.88"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="17.940000000000001"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="2968"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="2949"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="16.850000000000001"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="17.91"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1.17"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1.35"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="9.36"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="8.2100000000000009"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="2732"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="2879"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="9.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="8.19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="1.2190000000000001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="0.83599999999999997"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="1.51"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="1.47"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="1047"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="1671"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1.44"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1.43"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="0.37"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="0.307"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="736.16"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="536.11"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="2699"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="1672"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="704.93"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="526.72"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="127.676"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="80.478999999999999"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="618.45000000000005"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="443.27"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="2698"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="1672"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="606.46"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="435.25"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="108.318"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="72.546000000000006"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="7.82"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="8.01"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="1680"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="2879"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="7.82"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="8.01"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="7.0000000000000007E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="6.0999999999999999E-2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="30.26"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="30.57"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="2122"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="2879"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="30.34"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="31.03"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="0.90800000000000003"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="1.0329999999999999"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="16.22"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="16.55"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="2867"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="2879"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="16.260000000000002"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="16.45"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="1.139"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="1.2969999999999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="9.51"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="8.33"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="2660"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="2975"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="9.8699999999999992"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="8.35"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="1.0589999999999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="0.624"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1.64"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1.38"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="1542"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="2240"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="1.61"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="1.33"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="0.57999999999999996"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="0.28100000000000003"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="729.35"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="504.17"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="2721"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="2240"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="707.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="503.48"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="155.512"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="101.77200000000001"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="687.99"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="480.93"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="2721"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="2240"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="657.86"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="492.35"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="138.864"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="90.863"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="7.86"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="8.0299999999999994"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="1850"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="2975"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="7.88"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="8.0299999999999994"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="7.0999999999999994E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="0.06"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="30.25"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="30.7"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="2873"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="2975"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="30.47"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="31.03"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="1.163"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="0.997"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="13.17"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="13.34"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="2969"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="2975"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="13.48"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="13.55"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="1.5509999999999999"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="1.552"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="10.32"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="9.2799999999999994"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1975"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2421"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="10.35"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="9.3000000000000007"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="0.55700000000000005"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="0.60299999999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="0.61"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="0.98"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="158"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2093"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="0.57999999999999996"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="0.98"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="0.216"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="0.21"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="576.75"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="443.23"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1575"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2093"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="562.75"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="456.47"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="74.795000000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="80.308999999999997"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="655.97"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="514.62"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1575"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2093"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="649.95000000000005"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="510.22"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="49.804000000000002"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="97.221000000000004"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="7.85"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="8.02"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="753"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2421"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="7.88"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="8.02"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="8.2000000000000003E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="6.2E-2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="28.94"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="30.26"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2306"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2421"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="29.63"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="30.09"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="2.0070000000000001"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="0.85899999999999999"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="9.0399999999999991"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="8.16"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2313"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2884"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="8.9499999999999993"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="7.95"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="1.629"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="2.0779999999999998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="11.31"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="10.69"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="1488"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="2964"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="11.13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="10.66"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="0.873"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="0.72599999999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="1.01"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="2219"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="11"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="11"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="0.17499999999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="491.44"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="350.2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="1470"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="2219"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="488.1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="343.9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="49.411999999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="71.730999999999995"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="660.34"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="489.59"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="1470"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="2219"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="660.58"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="474.45"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="39.405999999999999"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="90.843999999999994"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="8.01"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="8.1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="561"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="2964"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="8.01"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="8.1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2.5000000000000001E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="0.05"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="27.79"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="30.42"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="2229"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="2964"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="29.67"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="30.51"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="4.0190000000000001"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="0.81699999999999995"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="5.7"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="4.08"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="2232"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="2975"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="5.79"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="3.94"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="1.754"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="1.5529999999999999"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A4:D18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="0" item="2" hier="-1"/>
+    <pageField fld="2" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Min of Value" fld="4" subtotal="min" baseField="1" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="6" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -912,10 +6944,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="5" max="6" width="5.81640625" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" customWidth="1"/>
+    <col min="8" max="8" width="6.08984375" customWidth="1"/>
+    <col min="9" max="9" width="5.81640625" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="12" width="5.81640625" customWidth="1"/>
+    <col min="13" max="13" width="8.54296875" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" customWidth="1"/>
+    <col min="15" max="15" width="5.81640625" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.81640625" customWidth="1"/>
+    <col min="18" max="18" width="5.26953125" customWidth="1"/>
+    <col min="19" max="19" width="8.36328125" customWidth="1"/>
+    <col min="20" max="20" width="5.08984375" customWidth="1"/>
+    <col min="21" max="21" width="5.26953125" customWidth="1"/>
+    <col min="22" max="22" width="7.7265625" customWidth="1"/>
+    <col min="23" max="23" width="5.81640625" customWidth="1"/>
+    <col min="24" max="24" width="5.26953125" customWidth="1"/>
+    <col min="26" max="26" width="5.6328125" customWidth="1"/>
+    <col min="27" max="27" width="5.26953125" customWidth="1"/>
+    <col min="28" max="28" width="8.54296875" customWidth="1"/>
+    <col min="29" max="29" width="5.54296875" customWidth="1"/>
+    <col min="30" max="30" width="5.26953125" customWidth="1"/>
+    <col min="31" max="31" width="8.453125" customWidth="1"/>
+    <col min="32" max="32" width="5.90625" customWidth="1"/>
+    <col min="33" max="33" width="5.26953125" customWidth="1"/>
+    <col min="34" max="34" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="5.81640625" customWidth="1"/>
+    <col min="37" max="37" width="8.6328125" customWidth="1"/>
+    <col min="38" max="38" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>376.17</v>
+      </c>
+      <c r="C6" s="3">
+        <v>259.06</v>
+      </c>
+      <c r="D6" s="3">
+        <v>259.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>473.45</v>
+      </c>
+      <c r="C7" s="3">
+        <v>280.98</v>
+      </c>
+      <c r="D7" s="3">
+        <v>280.98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>407.76</v>
+      </c>
+      <c r="C8" s="3">
+        <v>295.27</v>
+      </c>
+      <c r="D8" s="3">
+        <v>295.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>301.83999999999997</v>
+      </c>
+      <c r="C9" s="3">
+        <v>367.3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>301.83999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>398.42</v>
+      </c>
+      <c r="C10" s="3">
+        <v>388.87</v>
+      </c>
+      <c r="D10" s="3">
+        <v>388.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>464.58</v>
+      </c>
+      <c r="C11" s="3">
+        <v>419.28</v>
+      </c>
+      <c r="D11" s="3">
+        <v>419.28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3">
+        <v>566.19000000000005</v>
+      </c>
+      <c r="C12" s="3">
+        <v>526.91999999999996</v>
+      </c>
+      <c r="D12" s="3">
+        <v>526.91999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>723.6</v>
+      </c>
+      <c r="C13" s="3">
+        <v>510.86</v>
+      </c>
+      <c r="D13" s="3">
+        <v>510.86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3">
+        <v>736.16</v>
+      </c>
+      <c r="C14" s="3">
+        <v>536.11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>536.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3">
+        <v>729.35</v>
+      </c>
+      <c r="C15" s="3">
+        <v>504.17</v>
+      </c>
+      <c r="D15" s="3">
+        <v>504.17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3">
+        <v>576.75</v>
+      </c>
+      <c r="C16" s="3">
+        <v>443.23</v>
+      </c>
+      <c r="D16" s="3">
+        <v>443.23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3">
+        <v>491.44</v>
+      </c>
+      <c r="C17" s="3">
+        <v>350.2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>350.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3">
+        <v>301.83999999999997</v>
+      </c>
+      <c r="C18" s="3">
+        <v>259.06</v>
+      </c>
+      <c r="D18" s="3">
+        <v>259.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E673"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A643" workbookViewId="0">
-      <selection activeCell="A618" sqref="A618:C673"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -937,7 +7239,10 @@
         <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
